--- a/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ephb2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H2">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.79414117517709</v>
+        <v>0.03156133333333334</v>
       </c>
       <c r="N2">
-        <v>6.79414117517709</v>
+        <v>0.094684</v>
       </c>
       <c r="O2">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700065</v>
       </c>
       <c r="P2">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700064</v>
       </c>
       <c r="Q2">
-        <v>68.52351805722842</v>
+        <v>0.3751734934591111</v>
       </c>
       <c r="R2">
-        <v>68.52351805722842</v>
+        <v>3.376561441132</v>
       </c>
       <c r="S2">
-        <v>0.65120689113938</v>
+        <v>0.002486997817990218</v>
       </c>
       <c r="T2">
-        <v>0.65120689113938</v>
+        <v>0.002486997817990217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H3">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.51932372495015</v>
+        <v>6.959457666666666</v>
       </c>
       <c r="N3">
-        <v>0.51932372495015</v>
+        <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.07100925922829202</v>
+        <v>0.919015282900934</v>
       </c>
       <c r="P3">
-        <v>0.07100925922829202</v>
+        <v>0.9190152829009339</v>
       </c>
       <c r="Q3">
-        <v>5.237731705397066</v>
+        <v>82.72793857623654</v>
       </c>
       <c r="R3">
-        <v>5.237731705397066</v>
+        <v>744.5514471861289</v>
       </c>
       <c r="S3">
-        <v>0.04977629691524547</v>
+        <v>0.5483974915950516</v>
       </c>
       <c r="T3">
-        <v>0.04977629691524547</v>
+        <v>0.5483974915950515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38188700845157</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H4">
-        <v>2.38188700845157</v>
+        <v>35.661373</v>
       </c>
       <c r="I4">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J4">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>6.79414117517709</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>6.79414117517709</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.9289907407717081</v>
+        <v>0.0005659779383930065</v>
       </c>
       <c r="P4">
-        <v>0.9289907407717081</v>
+        <v>0.0005659779383930064</v>
       </c>
       <c r="Q4">
-        <v>16.18287659874019</v>
+        <v>0.05094821489266666</v>
       </c>
       <c r="R4">
-        <v>16.18287659874019</v>
+        <v>0.4585339340339999</v>
       </c>
       <c r="S4">
-        <v>0.1537924651030983</v>
+        <v>0.0003377320132622007</v>
       </c>
       <c r="T4">
-        <v>0.1537924651030983</v>
+        <v>0.0003377320132622007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38188700845157</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H5">
-        <v>2.38188700845157</v>
+        <v>35.661373</v>
       </c>
       <c r="I5">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J5">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.51932372495015</v>
+        <v>0.5774283333333333</v>
       </c>
       <c r="N5">
-        <v>0.51932372495015</v>
+        <v>1.732285</v>
       </c>
       <c r="O5">
-        <v>0.07100925922829202</v>
+        <v>0.07625097939097288</v>
       </c>
       <c r="P5">
-        <v>0.07100925922829202</v>
+        <v>0.07625097939097286</v>
       </c>
       <c r="Q5">
-        <v>1.236970433639439</v>
+        <v>6.863962391922777</v>
       </c>
       <c r="R5">
-        <v>1.236970433639439</v>
+        <v>61.77566152730499</v>
       </c>
       <c r="S5">
-        <v>0.01175543365781256</v>
+        <v>0.04550070777678576</v>
       </c>
       <c r="T5">
-        <v>0.01175543365781256</v>
+        <v>0.04550070777678576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.92033769516674</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H6">
-        <v>1.92033769516674</v>
+        <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J6">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.79414117517709</v>
+        <v>0.03156133333333334</v>
       </c>
       <c r="N6">
-        <v>6.79414117517709</v>
+        <v>0.094684</v>
       </c>
       <c r="O6">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700065</v>
       </c>
       <c r="P6">
-        <v>0.9289907407717081</v>
+        <v>0.004167759769700064</v>
       </c>
       <c r="Q6">
-        <v>13.04704540497702</v>
+        <v>0.01194879466622222</v>
       </c>
       <c r="R6">
-        <v>13.04704540497702</v>
+        <v>0.107539151996</v>
       </c>
       <c r="S6">
-        <v>0.1239913845292296</v>
+        <v>7.920769132307194E-05</v>
       </c>
       <c r="T6">
-        <v>0.1239913845292296</v>
+        <v>7.920769132307192E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3785896666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.135769</v>
+      </c>
+      <c r="I7">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="J7">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.959457666666666</v>
+      </c>
+      <c r="N7">
+        <v>20.878373</v>
+      </c>
+      <c r="O7">
+        <v>0.919015282900934</v>
+      </c>
+      <c r="P7">
+        <v>0.9190152829009339</v>
+      </c>
+      <c r="Q7">
+        <v>2.634778758204111</v>
+      </c>
+      <c r="R7">
+        <v>23.713008823837</v>
+      </c>
+      <c r="S7">
+        <v>0.01746575687457183</v>
+      </c>
+      <c r="T7">
+        <v>0.01746575687457183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3785896666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.135769</v>
+      </c>
+      <c r="I8">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="J8">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.004286</v>
+      </c>
+      <c r="N8">
+        <v>0.012858</v>
+      </c>
+      <c r="O8">
+        <v>0.0005659779383930065</v>
+      </c>
+      <c r="P8">
+        <v>0.0005659779383930064</v>
+      </c>
+      <c r="Q8">
+        <v>0.001622635311333333</v>
+      </c>
+      <c r="R8">
+        <v>0.014603717802</v>
+      </c>
+      <c r="S8">
+        <v>1.075633153470553E-05</v>
+      </c>
+      <c r="T8">
+        <v>1.075633153470553E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3785896666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.135769</v>
+      </c>
+      <c r="I9">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="J9">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5774283333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.732285</v>
+      </c>
+      <c r="O9">
+        <v>0.07625097939097288</v>
+      </c>
+      <c r="P9">
+        <v>0.07625097939097286</v>
+      </c>
+      <c r="Q9">
+        <v>0.2186084002405556</v>
+      </c>
+      <c r="R9">
+        <v>1.967475602165</v>
+      </c>
+      <c r="S9">
+        <v>0.001449139195255668</v>
+      </c>
+      <c r="T9">
+        <v>0.001449139195255667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H10">
+        <v>12.369594</v>
+      </c>
+      <c r="I10">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J10">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03156133333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.094684</v>
+      </c>
+      <c r="O10">
+        <v>0.004167759769700065</v>
+      </c>
+      <c r="P10">
+        <v>0.004167759769700064</v>
+      </c>
+      <c r="Q10">
+        <v>0.1301336264773333</v>
+      </c>
+      <c r="R10">
+        <v>1.171202638296</v>
+      </c>
+      <c r="S10">
+        <v>0.0008626463509249879</v>
+      </c>
+      <c r="T10">
+        <v>0.0008626463509249878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="H7">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="I7">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="J7">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.51932372495015</v>
-      </c>
-      <c r="N7">
-        <v>0.51932372495015</v>
-      </c>
-      <c r="O7">
-        <v>0.07100925922829202</v>
-      </c>
-      <c r="P7">
-        <v>0.07100925922829202</v>
-      </c>
-      <c r="Q7">
-        <v>0.997276925016177</v>
-      </c>
-      <c r="R7">
-        <v>0.997276925016177</v>
-      </c>
-      <c r="S7">
-        <v>0.009477528655233979</v>
-      </c>
-      <c r="T7">
-        <v>0.009477528655233979</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H11">
+        <v>12.369594</v>
+      </c>
+      <c r="I11">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J11">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.959457666666666</v>
+      </c>
+      <c r="N11">
+        <v>20.878373</v>
+      </c>
+      <c r="O11">
+        <v>0.919015282900934</v>
+      </c>
+      <c r="P11">
+        <v>0.9190152829009339</v>
+      </c>
+      <c r="Q11">
+        <v>28.69522193228466</v>
+      </c>
+      <c r="R11">
+        <v>258.256997390562</v>
+      </c>
+      <c r="S11">
+        <v>0.1902185404260571</v>
+      </c>
+      <c r="T11">
+        <v>0.1902185404260571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H12">
+        <v>12.369594</v>
+      </c>
+      <c r="I12">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J12">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.004286</v>
+      </c>
+      <c r="N12">
+        <v>0.012858</v>
+      </c>
+      <c r="O12">
+        <v>0.0005659779383930065</v>
+      </c>
+      <c r="P12">
+        <v>0.0005659779383930064</v>
+      </c>
+      <c r="Q12">
+        <v>0.017672026628</v>
+      </c>
+      <c r="R12">
+        <v>0.159048239652</v>
+      </c>
+      <c r="S12">
+        <v>0.0001171465799944393</v>
+      </c>
+      <c r="T12">
+        <v>0.0001171465799944393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H13">
+        <v>12.369594</v>
+      </c>
+      <c r="I13">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J13">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5774283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.732285</v>
+      </c>
+      <c r="O13">
+        <v>0.07625097939097288</v>
+      </c>
+      <c r="P13">
+        <v>0.07625097939097286</v>
+      </c>
+      <c r="Q13">
+        <v>2.380851349143333</v>
+      </c>
+      <c r="R13">
+        <v>21.42766214229</v>
+      </c>
+      <c r="S13">
+        <v>0.01578249053707165</v>
+      </c>
+      <c r="T13">
+        <v>0.01578249053707165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H14">
+        <v>10.595293</v>
+      </c>
+      <c r="I14">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J14">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03156133333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.094684</v>
+      </c>
+      <c r="O14">
+        <v>0.004167759769700065</v>
+      </c>
+      <c r="P14">
+        <v>0.004167759769700064</v>
+      </c>
+      <c r="Q14">
+        <v>0.1114671913791111</v>
+      </c>
+      <c r="R14">
+        <v>1.003204722412</v>
+      </c>
+      <c r="S14">
+        <v>0.0007389079094617874</v>
+      </c>
+      <c r="T14">
+        <v>0.0007389079094617873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H15">
+        <v>10.595293</v>
+      </c>
+      <c r="I15">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J15">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.959457666666666</v>
+      </c>
+      <c r="N15">
+        <v>20.878373</v>
+      </c>
+      <c r="O15">
+        <v>0.919015282900934</v>
+      </c>
+      <c r="P15">
+        <v>0.9190152829009339</v>
+      </c>
+      <c r="Q15">
+        <v>24.57916436647655</v>
+      </c>
+      <c r="R15">
+        <v>221.212479298289</v>
+      </c>
+      <c r="S15">
+        <v>0.1629334940052535</v>
+      </c>
+      <c r="T15">
+        <v>0.1629334940052535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H16">
+        <v>10.595293</v>
+      </c>
+      <c r="I16">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J16">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.004286</v>
+      </c>
+      <c r="N16">
+        <v>0.012858</v>
+      </c>
+      <c r="O16">
+        <v>0.0005659779383930065</v>
+      </c>
+      <c r="P16">
+        <v>0.0005659779383930064</v>
+      </c>
+      <c r="Q16">
+        <v>0.01513714193266667</v>
+      </c>
+      <c r="R16">
+        <v>0.136234277394</v>
+      </c>
+      <c r="S16">
+        <v>0.0001003430136016609</v>
+      </c>
+      <c r="T16">
+        <v>0.0001003430136016609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H17">
+        <v>10.595293</v>
+      </c>
+      <c r="I17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5774283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.732285</v>
+      </c>
+      <c r="O17">
+        <v>0.07625097939097288</v>
+      </c>
+      <c r="P17">
+        <v>0.07625097939097286</v>
+      </c>
+      <c r="Q17">
+        <v>2.039340792722778</v>
+      </c>
+      <c r="R17">
+        <v>18.354067134505</v>
+      </c>
+      <c r="S17">
+        <v>0.01351864188185979</v>
+      </c>
+      <c r="T17">
+        <v>0.01351864188185979</v>
       </c>
     </row>
   </sheetData>
